--- a/resultados/resultados_slot09.xlsx
+++ b/resultados/resultados_slot09.xlsx
@@ -481,7 +481,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>can_268.mtx</t>
+          <t>can_187.mtx</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -490,16 +490,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>14.45866874440652</v>
+        <v>8.397620475292884</v>
       </c>
       <c r="E2" t="n">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02560281753540039</v>
+        <v>0.00758671760559082</v>
       </c>
       <c r="G2" t="n">
-        <v>268</v>
+        <v>187</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -518,7 +518,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>can_268.mtx</t>
+          <t>can_187.mtx</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -527,16 +527,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>14.45863188310433</v>
+        <v>8.399295525379349</v>
       </c>
       <c r="E3" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0002799034118652344</v>
+        <v>0.0009226799011230469</v>
       </c>
       <c r="G3" t="n">
-        <v>268</v>
+        <v>187</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -555,7 +555,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>can_634.mtx</t>
+          <t>can_229.mtx</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -564,16 +564,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>13.85636022094015</v>
+        <v>8.696410230685041</v>
       </c>
       <c r="E4" t="n">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003340721130371094</v>
+        <v>0.0006277561187744141</v>
       </c>
       <c r="G4" t="n">
-        <v>634</v>
+        <v>229</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -592,7 +592,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>can_634.mtx</t>
+          <t>can_229.mtx</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -601,16 +601,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>13.86178904213738</v>
+        <v>8.696434096273036</v>
       </c>
       <c r="E5" t="n">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="F5" t="n">
-        <v>0.002785682678222656</v>
+        <v>0.0004148483276367188</v>
       </c>
       <c r="G5" t="n">
-        <v>634</v>
+        <v>229</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>can_187.mtx</t>
+          <t>can_161.mtx</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -638,16 +638,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>8.397620475292884</v>
+        <v>8.821261565896524</v>
       </c>
       <c r="E6" t="n">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001135826110839844</v>
+        <v>0.0007724761962890625</v>
       </c>
       <c r="G6" t="n">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>can_187.mtx</t>
+          <t>can_161.mtx</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -675,16 +675,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>8.399295525379349</v>
+        <v>8.82129418362558</v>
       </c>
       <c r="E7" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0005247592926025391</v>
+        <v>0.0006036758422851562</v>
       </c>
       <c r="G7" t="n">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -703,7 +703,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>can_256.mtx</t>
+          <t>can_292.mtx</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -712,16 +712,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>16.03687867071401</v>
+        <v>12.16372151100421</v>
       </c>
       <c r="E8" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0004596710205078125</v>
+        <v>0.0008475780487060547</v>
       </c>
       <c r="G8" t="n">
-        <v>256</v>
+        <v>292</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -740,7 +740,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>can_256.mtx</t>
+          <t>can_292.mtx</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -749,16 +749,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>16.03715130336158</v>
+        <v>12.16373315524623</v>
       </c>
       <c r="E9" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0004141330718994141</v>
+        <v>0.0005564689636230469</v>
       </c>
       <c r="G9" t="n">
-        <v>256</v>
+        <v>292</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -792,7 +792,7 @@
         <v>42</v>
       </c>
       <c r="F10" t="n">
-        <v>0.005423307418823242</v>
+        <v>0.01749372482299805</v>
       </c>
       <c r="G10" t="n">
         <v>1054</v>
@@ -829,7 +829,7 @@
         <v>28</v>
       </c>
       <c r="F11" t="n">
-        <v>0.003906488418579102</v>
+        <v>0.01064252853393555</v>
       </c>
       <c r="G11" t="n">
         <v>1054</v>
@@ -866,7 +866,7 @@
         <v>43</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001050710678100586</v>
+        <v>0.002956867218017578</v>
       </c>
       <c r="G12" t="n">
         <v>445</v>
@@ -903,7 +903,7 @@
         <v>20</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0007276535034179688</v>
+        <v>0.0013580322265625</v>
       </c>
       <c r="G13" t="n">
         <v>445</v>
@@ -925,7 +925,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>can_161.mtx</t>
+          <t>can_256.mtx</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -934,16 +934,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>8.821261565896524</v>
+        <v>16.03687867071401</v>
       </c>
       <c r="E14" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0004405975341796875</v>
+        <v>0.0009183883666992188</v>
       </c>
       <c r="G14" t="n">
-        <v>161</v>
+        <v>256</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>can_161.mtx</t>
+          <t>can_256.mtx</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -971,16 +971,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>8.82129418362558</v>
+        <v>16.03715130336158</v>
       </c>
       <c r="E15" t="n">
         <v>14</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0003480911254882812</v>
+        <v>0.0008599758148193359</v>
       </c>
       <c r="G15" t="n">
-        <v>161</v>
+        <v>256</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>can_715.mtx</t>
+          <t>can_268.mtx</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1008,16 +1008,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>15.30932234687733</v>
+        <v>14.45866874440652</v>
       </c>
       <c r="E16" t="n">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="F16" t="n">
-        <v>0.003895998001098633</v>
+        <v>0.001137256622314453</v>
       </c>
       <c r="G16" t="n">
-        <v>715</v>
+        <v>268</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>can_715.mtx</t>
+          <t>can_268.mtx</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1045,16 +1045,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>15.31046671178859</v>
+        <v>14.45863188310433</v>
       </c>
       <c r="E17" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="F17" t="n">
-        <v>0.002469539642333984</v>
+        <v>0.0005848407745361328</v>
       </c>
       <c r="G17" t="n">
-        <v>715</v>
+        <v>268</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>can_229.mtx</t>
+          <t>can_715.mtx</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1082,16 +1082,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>8.696410230685041</v>
+        <v>15.30932234687733</v>
       </c>
       <c r="E18" t="n">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0003170967102050781</v>
+        <v>0.006733417510986328</v>
       </c>
       <c r="G18" t="n">
-        <v>229</v>
+        <v>715</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>can_229.mtx</t>
+          <t>can_715.mtx</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1119,16 +1119,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>8.696434096273036</v>
+        <v>15.31046671178859</v>
       </c>
       <c r="E19" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0002553462982177734</v>
+        <v>0.004374027252197266</v>
       </c>
       <c r="G19" t="n">
-        <v>229</v>
+        <v>715</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>can_292.mtx</t>
+          <t>can_634.mtx</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1156,16 +1156,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>12.16372151100421</v>
+        <v>13.85636022094015</v>
       </c>
       <c r="E20" t="n">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0003333091735839844</v>
+        <v>0.008114337921142578</v>
       </c>
       <c r="G20" t="n">
-        <v>292</v>
+        <v>634</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>can_292.mtx</t>
+          <t>can_634.mtx</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1193,16 +1193,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>12.16373315524623</v>
+        <v>13.86178904213738</v>
       </c>
       <c r="E21" t="n">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0002367496490478516</v>
+        <v>0.006328582763671875</v>
       </c>
       <c r="G21" t="n">
-        <v>292</v>
+        <v>634</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
